--- a/auxfiles/delicond.xlsx
+++ b/auxfiles/delicond.xlsx
@@ -28,13 +28,13 @@
     <t xml:space="preserve">NameDeliveryCond</t>
   </si>
   <si>
+    <t xml:space="preserve">no aplica</t>
+  </si>
+  <si>
     <t xml:space="preserve">CIF</t>
   </si>
   <si>
     <t xml:space="preserve">FOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not aplicable</t>
   </si>
 </sst>
 </file>
@@ -49,6 +49,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -69,6 +70,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,12 +148,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,7 +167,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -174,7 +176,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -183,7 +185,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
